--- a/cs2420/efficiency/random_data_comparisons.xlsx
+++ b/cs2420/efficiency/random_data_comparisons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
         <v>35</v>
@@ -485,7 +485,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>713</v>
+        <v>992</v>
       </c>
       <c r="C4" t="n">
-        <v>465</v>
+        <v>651</v>
       </c>
       <c r="D4" t="n">
         <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="G4" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>3402</v>
+        <v>3528</v>
       </c>
       <c r="C5" t="n">
-        <v>2205</v>
+        <v>2583</v>
       </c>
       <c r="D5" t="n">
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F5" t="n">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G5" t="n">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>15748</v>
+        <v>14732</v>
       </c>
       <c r="C6" t="n">
-        <v>8763</v>
+        <v>9525</v>
       </c>
       <c r="D6" t="n">
         <v>128</v>
       </c>
       <c r="E6" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F6" t="n">
-        <v>788</v>
+        <v>1039</v>
       </c>
       <c r="G6" t="n">
-        <v>826</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>62220</v>
+        <v>63495</v>
       </c>
       <c r="C7" t="n">
-        <v>36975</v>
+        <v>37485</v>
       </c>
       <c r="D7" t="n">
         <v>256</v>
       </c>
       <c r="E7" t="n">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="F7" t="n">
-        <v>1946</v>
+        <v>2653</v>
       </c>
       <c r="G7" t="n">
-        <v>2045</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>252434</v>
+        <v>225351</v>
       </c>
       <c r="C8" t="n">
-        <v>131327</v>
+        <v>138481</v>
       </c>
       <c r="D8" t="n">
         <v>512</v>
       </c>
       <c r="E8" t="n">
-        <v>3961</v>
+        <v>3974</v>
       </c>
       <c r="F8" t="n">
-        <v>4952</v>
+        <v>5351</v>
       </c>
       <c r="G8" t="n">
-        <v>5088</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>995379</v>
+        <v>965712</v>
       </c>
       <c r="C9" t="n">
         <v>553443</v>
@@ -640,13 +640,13 @@
         <v>1024</v>
       </c>
       <c r="E9" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="F9" t="n">
-        <v>12072</v>
+        <v>11002</v>
       </c>
       <c r="G9" t="n">
-        <v>11056</v>
+        <v>11043</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,45 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>4085812</v>
+        <v>4151316</v>
       </c>
       <c r="C10" t="n">
-        <v>2192337</v>
+        <v>2094081</v>
       </c>
       <c r="D10" t="n">
         <v>2048</v>
       </c>
       <c r="E10" t="n">
-        <v>19911</v>
+        <v>19944</v>
       </c>
       <c r="F10" t="n">
-        <v>23748</v>
+        <v>29481</v>
       </c>
       <c r="G10" t="n">
-        <v>29132</v>
+        <v>25045</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16285815</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8316945</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E11" t="n">
+        <v>43996</v>
+      </c>
+      <c r="F11" t="n">
+        <v>54364</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55383</v>
       </c>
     </row>
   </sheetData>
